--- a/hiveTabInfo_V1.9.1_12.xlsx
+++ b/hiveTabInfo_V1.9.1_12.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="667" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="667" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="字典表" sheetId="1" r:id="rId1"/>
@@ -1781,9 +1781,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1830,9 +1830,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1858,9 +1865,75 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1883,25 +1956,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1912,51 +1969,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1968,23 +1983,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="47">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2077,31 +2077,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2119,36 +2125,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2161,7 +2137,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2173,91 +2257,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2316,60 +2322,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2385,7 +2337,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2408,8 +2360,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2418,152 +2424,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2817,6 +2823,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3223,36 +3235,36 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
     </row>
     <row r="2" ht="68" customHeight="1" spans="1:13">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4997,10 +5009,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93:C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6761,6 +6773,76 @@
       <c r="G92" s="62"/>
       <c r="H92" s="62"/>
       <c r="I92" s="62"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="85"/>
+      <c r="B93" s="86"/>
+      <c r="C93" s="86"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="85"/>
+      <c r="B94" s="86"/>
+      <c r="C94" s="86"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="85"/>
+      <c r="B95" s="86"/>
+      <c r="C95" s="86"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="85"/>
+      <c r="B96" s="86"/>
+      <c r="C96" s="86"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="85"/>
+      <c r="B97" s="86"/>
+      <c r="C97" s="86"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="85"/>
+      <c r="B98" s="86"/>
+      <c r="C98" s="86"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="85"/>
+      <c r="B99" s="86"/>
+      <c r="C99" s="86"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="85"/>
+      <c r="B100" s="86"/>
+      <c r="C100" s="86"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="85"/>
+      <c r="B101" s="86"/>
+      <c r="C101" s="86"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="85"/>
+      <c r="B102" s="86"/>
+      <c r="C102" s="86"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="85"/>
+      <c r="B103" s="86"/>
+      <c r="C103" s="86"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="85"/>
+      <c r="B104" s="86"/>
+      <c r="C104" s="86"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="85"/>
+      <c r="B105" s="86"/>
+      <c r="C105" s="86"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="85"/>
+      <c r="B106" s="86"/>
+      <c r="C106" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="9">
